--- a/GrandpaArticles.xlsx
+++ b/GrandpaArticles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>http://www.adorama.com/catalog.tpl?op=article_020705</t>
   </si>
@@ -70,16 +70,43 @@
   </si>
   <si>
     <t>http://www.adorama.com/catalog.tpl?op=article_122704</t>
+  </si>
+  <si>
+    <t>Adorama Articles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,16 +129,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,110 +447,194 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O21"/>
+      <selection activeCell="N3" sqref="N3:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O4" t="s">
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O5" t="s">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O6" t="s">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O7" t="s">
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O8" t="s">
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O9" t="s">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O10" t="s">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O11" t="s">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O12" t="s">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O13" t="s">
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O14" t="s">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O15" t="s">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O16" t="s">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" t="s">
+    <row r="17" spans="14:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O18" t="s">
+    <row r="18" spans="14:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O19" t="s">
+    <row r="19" spans="14:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O20" t="s">
+    <row r="20" spans="14:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O21" t="s">
+    <row r="21" spans="14:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1"/>
+    <hyperlink ref="O5" r:id="rId2"/>
+    <hyperlink ref="O6" r:id="rId3"/>
+    <hyperlink ref="O7" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O9" r:id="rId6"/>
+    <hyperlink ref="O11" r:id="rId7"/>
+    <hyperlink ref="O13" r:id="rId8"/>
+    <hyperlink ref="O15" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O19" r:id="rId11"/>
+    <hyperlink ref="O21" r:id="rId12"/>
+    <hyperlink ref="O10" r:id="rId13"/>
+    <hyperlink ref="O12" r:id="rId14"/>
+    <hyperlink ref="O14" r:id="rId15"/>
+    <hyperlink ref="O16" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O20" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="1" right="0" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="115" fitToHeight="0" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
